--- a/Documents/QA Documentation-Umeliko.xlsx
+++ b/Documents/QA Documentation-Umeliko.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b0fbb1962f87a12b/Документи/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\source\repos\school-project-assignment-umeliko\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="8_{ECBA5A53-4080-4E6E-98DF-FC5CC13D4BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE4643B4-4956-42AA-9759-AE21AE755DAA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AED26C-7E0C-4845-AA48-DAA292099205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{65E478EC-4EBD-4D83-9AAB-5860A6656B0B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Test Case 1</t>
   </si>
@@ -122,19 +122,16 @@
     <t>Enter a value which navigate you in different subjects</t>
   </si>
   <si>
-    <t>Bulgaria</t>
-  </si>
-  <si>
-    <t>Bulgarian</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Geography</t>
-  </si>
-  <si>
-    <t>Biology</t>
+    <t>biology()</t>
+  </si>
+  <si>
+    <t>bulgaria()</t>
+  </si>
+  <si>
+    <t>geography()</t>
+  </si>
+  <si>
+    <t>history()</t>
   </si>
 </sst>
 </file>
@@ -351,22 +348,74 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -379,7 +428,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -388,67 +437,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -785,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0D3F68-4840-4DC0-A0BF-8D4124D89673}">
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -798,902 +793,961 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="4"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="4"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="3"/>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="36"/>
-      <c r="C10" s="28" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="36" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="36"/>
-      <c r="I10" s="28" t="s">
+      <c r="H10" s="10"/>
+      <c r="I10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37">
+      <c r="B12" s="10"/>
+      <c r="C12" s="14">
         <v>45403</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="36" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="36"/>
-      <c r="I12" s="29" t="s">
+      <c r="H12" s="10"/>
+      <c r="I12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="4"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="3"/>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="38"/>
-      <c r="C15" s="36" t="s">
+      <c r="B15" s="16"/>
+      <c r="C15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36" t="s">
+      <c r="H15" s="10"/>
+      <c r="I15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="8" t="s">
+      <c r="J15" s="10"/>
+      <c r="K15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L15" s="36" t="s">
+      <c r="L15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="36"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
+      <c r="A16" s="27">
         <v>1</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="23">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="25">
         <v>1</v>
       </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="21" t="s">
+      <c r="H16" s="26"/>
+      <c r="I16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J16" s="22"/>
-      <c r="K16" s="39" t="s">
+      <c r="J16" s="9"/>
+      <c r="K16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="26" t="s">
+      <c r="L16" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="40"/>
-    </row>
-    <row r="17" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
+      <c r="M16" s="23"/>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="27">
         <v>2</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="23">
+      <c r="B17" s="28"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="25">
         <v>2</v>
       </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="28" t="s">
+      <c r="H17" s="26"/>
+      <c r="I17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J17" s="28"/>
-      <c r="K17" s="39" t="s">
+      <c r="J17" s="11"/>
+      <c r="K17" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="29" t="s">
+      <c r="L17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M17" s="29"/>
-    </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
+      <c r="M17" s="13"/>
+    </row>
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="27">
         <v>3</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="23">
+      <c r="B18" s="28"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="25">
         <v>3</v>
       </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="28" t="s">
+      <c r="H18" s="26"/>
+      <c r="I18" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="28"/>
-      <c r="K18" s="39" t="s">
+      <c r="J18" s="11"/>
+      <c r="K18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M18" s="29"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-    </row>
-    <row r="21" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
+      <c r="M18" s="13"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-    </row>
-    <row r="22" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-    </row>
-    <row r="23" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="30"/>
-      <c r="N23" s="31"/>
-    </row>
-    <row r="24" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="34" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-    </row>
-    <row r="25" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="36" t="s">
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+    </row>
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="28" t="s">
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="36" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="28" t="s">
+      <c r="H25" s="10"/>
+      <c r="I25" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="28"/>
-      <c r="M25" s="28"/>
-    </row>
-    <row r="26" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="28"/>
-      <c r="M26" s="28"/>
-    </row>
-    <row r="27" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="36" t="s">
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+    </row>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37">
+      <c r="B27" s="10"/>
+      <c r="C27" s="14">
         <v>45403</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="36" t="s">
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="29" t="s">
+      <c r="H27" s="10"/>
+      <c r="I27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-    </row>
-    <row r="28" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-    </row>
-    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+    </row>
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="s">
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="36" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="36" t="s">
+      <c r="H30" s="10"/>
+      <c r="I30" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J30" s="36"/>
-      <c r="K30" s="8" t="s">
+      <c r="J30" s="10"/>
+      <c r="K30" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L30" s="36" t="s">
+      <c r="L30" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="36"/>
-    </row>
-    <row r="31" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="36">
+      <c r="M30" s="10"/>
+    </row>
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
         <v>1</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="27" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27">
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12">
         <v>1</v>
       </c>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27" t="s">
+      <c r="H31" s="12"/>
+      <c r="I31" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="J31" s="27"/>
-      <c r="K31" s="25" t="s">
+      <c r="J31" s="12"/>
+      <c r="K31" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="M31" s="23"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>2</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12">
+        <v>2</v>
+      </c>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L31" s="26" t="s">
+      <c r="J32" s="12"/>
+      <c r="K32" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L32" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M31" s="40"/>
-    </row>
-    <row r="32" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="36">
-        <v>2</v>
-      </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27">
-        <v>2</v>
-      </c>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27" t="s">
+      <c r="M32" s="23"/>
+    </row>
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>3</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12">
+        <v>3</v>
+      </c>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="J32" s="27"/>
-      <c r="K32" s="25" t="s">
+      <c r="J33" s="12"/>
+      <c r="K33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="L32" s="26" t="s">
+      <c r="L33" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M32" s="40"/>
-    </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="36">
-        <v>3</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27">
-        <v>3</v>
-      </c>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27" t="s">
+      <c r="M33" s="13"/>
+    </row>
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>4</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12">
+        <v>4</v>
+      </c>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J33" s="27"/>
-      <c r="K33" s="25" t="s">
+      <c r="J34" s="12"/>
+      <c r="K34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="L33" s="29" t="s">
+      <c r="L34" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M33" s="29"/>
-    </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36">
-        <v>4</v>
-      </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27">
-        <v>4</v>
-      </c>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="J34" s="27"/>
-      <c r="K34" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="L34" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="M34" s="29"/>
+      <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="17"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
+      <c r="A35" s="5"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
+      <c r="A36" s="5"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
-      <c r="F38" s="32"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
     </row>
     <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="4"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="34"/>
-      <c r="M40" s="34"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="28" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="36" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H41" s="36"/>
-      <c r="I41" s="28" t="s">
+      <c r="H41" s="10"/>
+      <c r="I41" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="36"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
-      <c r="K42" s="28"/>
-      <c r="L42" s="28"/>
-      <c r="M42" s="28"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
     </row>
     <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="36" t="s">
+      <c r="A43" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37">
+      <c r="B43" s="10"/>
+      <c r="C43" s="14">
         <v>45403</v>
       </c>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="36" t="s">
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H43" s="36"/>
-      <c r="I43" s="29" t="s">
+      <c r="H43" s="10"/>
+      <c r="I43" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="29"/>
-      <c r="M43" s="29"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
     </row>
     <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="36"/>
-      <c r="I44" s="29"/>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="29"/>
-      <c r="M44" s="29"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
     </row>
     <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="4"/>
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="38" t="s">
+      <c r="A46" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="38"/>
-      <c r="C46" s="36" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="36" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H46" s="36"/>
-      <c r="I46" s="36" t="s">
+      <c r="H46" s="10"/>
+      <c r="I46" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J46" s="36"/>
-      <c r="K46" s="8" t="s">
+      <c r="J46" s="10"/>
+      <c r="K46" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L46" s="36" t="s">
+      <c r="L46" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="M46" s="36"/>
+      <c r="M46" s="10"/>
     </row>
     <row r="47" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="36">
+      <c r="A47" s="10">
         <v>1</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="28" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="27" t="s">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27" t="s">
+      <c r="H47" s="12"/>
+      <c r="I47" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J47" s="27"/>
-      <c r="K47" s="25" t="s">
+      <c r="J47" s="12"/>
+      <c r="K47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L47" s="29" t="s">
+      <c r="L47" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="M47" s="29"/>
+      <c r="M47" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="92">
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:F11"/>
+    <mergeCell ref="G10:H11"/>
+    <mergeCell ref="I10:M11"/>
+    <mergeCell ref="A1:M4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A6:M7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="A9:M9"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A12:B13"/>
+    <mergeCell ref="C12:F13"/>
+    <mergeCell ref="G12:H13"/>
+    <mergeCell ref="I12:M13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A21:M22"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:F18"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:F26"/>
+    <mergeCell ref="G25:H26"/>
+    <mergeCell ref="I25:M26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:F28"/>
+    <mergeCell ref="G27:H28"/>
+    <mergeCell ref="I27:M28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:F34"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="L34:M34"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="A43:B44"/>
     <mergeCell ref="C43:F44"/>
@@ -1705,6 +1759,11 @@
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="I46:J46"/>
     <mergeCell ref="L46:M46"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
     <mergeCell ref="A37:M38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="A40:M40"/>
@@ -1716,71 +1775,6 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="G33:H33"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:F34"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:F28"/>
-    <mergeCell ref="G27:H28"/>
-    <mergeCell ref="I27:M28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:F26"/>
-    <mergeCell ref="G25:H26"/>
-    <mergeCell ref="I25:M26"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="A21:M22"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:F18"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:F13"/>
-    <mergeCell ref="G12:H13"/>
-    <mergeCell ref="I12:M13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A1:M4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A6:M7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A9:M9"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="I10:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
